--- a/PCB/harp rfid reader v1.0 BOM.xlsx
+++ b/PCB/harp rfid reader v1.0 BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEPS\Documents\github\harp-tech\harp RFID reader\PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEPS\Documents\github\harp-tech\harp_RFID_reader\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D9ADCC-DF45-42CD-91AE-AD0953C8F7BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E7BAD3-1F2F-4E1A-B486-4C7BF45A50DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22DE42AE-D7DB-44FC-B9CF-DE1961A005DB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22DE42AE-D7DB-44FC-B9CF-DE1961A005DB}"/>
   </bookViews>
   <sheets>
     <sheet name="harp expander v1" sheetId="1" r:id="rId1"/>
@@ -156,12 +156,6 @@
     <t>IC1</t>
   </si>
   <si>
-    <t>ATXMEGA16A4U-AUR</t>
-  </si>
-  <si>
-    <t>ATXMEGA16A4U-AURDKR-ND</t>
-  </si>
-  <si>
     <t>IC3</t>
   </si>
   <si>
@@ -297,9 +291,6 @@
     <t>Ultra-Low-Noise LDO 3.3V 250mA</t>
   </si>
   <si>
-    <t>ATXMEGA16A4U</t>
-  </si>
-  <si>
     <t>UX60-MB-5S8</t>
   </si>
   <si>
@@ -466,6 +457,15 @@
   </si>
   <si>
     <t>‎S5901-07-ND‎</t>
+  </si>
+  <si>
+    <t>ATXMEGA32A4U</t>
+  </si>
+  <si>
+    <t>ATXMEGA32A4U-AURDKR-ND</t>
+  </si>
+  <si>
+    <t>ATXMEGA32A4U-AUR</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1436,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,16 +1494,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>10</v>
@@ -1512,7 +1512,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1520,16 +1520,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
@@ -1538,7 +1538,7 @@
         <v>26</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1546,13 +1546,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>22</v>
@@ -1564,7 +1564,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1572,16 +1572,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>10</v>
@@ -1590,7 +1590,7 @@
         <v>26</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1598,13 +1598,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>23</v>
@@ -1616,7 +1616,7 @@
         <v>26</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1624,14 +1624,14 @@
         <v>1</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>10</v>
@@ -1640,10 +1640,10 @@
         <v>26</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1651,16 +1651,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>10</v>
@@ -1669,7 +1669,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1677,16 +1677,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>10</v>
@@ -1695,7 +1695,7 @@
         <v>26</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1709,10 +1709,10 @@
         <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>10</v>
@@ -1721,7 +1721,7 @@
         <v>26</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1729,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
@@ -1738,7 +1738,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>10</v>
@@ -1747,7 +1747,7 @@
         <v>26</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1755,16 +1755,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>10</v>
@@ -1773,7 +1773,7 @@
         <v>26</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1781,16 +1781,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>10</v>
@@ -1799,7 +1799,7 @@
         <v>26</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1807,16 +1807,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>10</v>
@@ -1825,7 +1825,7 @@
         <v>26</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1833,16 +1833,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>10</v>
@@ -1851,7 +1851,7 @@
         <v>26</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1859,14 +1859,14 @@
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>10</v>
@@ -1875,7 +1875,7 @@
         <v>26</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1883,16 +1883,16 @@
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>10</v>
@@ -1901,7 +1901,7 @@
         <v>26</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1909,16 +1909,16 @@
         <v>1</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         <v>26</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1935,16 +1935,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>10</v>
@@ -1953,7 +1953,7 @@
         <v>26</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1964,7 +1964,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>27</v>
@@ -1987,14 +1987,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>10</v>
@@ -2003,7 +2003,7 @@
         <v>26</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2011,14 +2011,14 @@
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>10</v>
@@ -2027,10 +2027,10 @@
         <v>26</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2038,14 +2038,14 @@
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>10</v>
@@ -2054,10 +2054,10 @@
         <v>26</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2065,16 +2065,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>11</v>
@@ -2083,7 +2083,7 @@
         <v>26</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2103,21 +2103,21 @@
         <v>1</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I27" s="18"/>
     </row>
@@ -2126,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2140,7 +2140,7 @@
         <v>26</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2200,18 +2200,18 @@
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E36" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F36" s="16">
         <v>49.74</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F37" s="16">
         <v>29.95</v>
@@ -2220,7 +2220,7 @@
     <row r="38" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D38" s="14"/>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F38" s="16">
         <v>8.9700000000000006</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F39" s="16">
         <v>2.2000000000000002</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F40" s="16">
         <v>12.5</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F41" s="16">
         <v>0.27</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E42" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F42" s="16">
         <f>SUM(F36:F41)</f>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E43" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F43" s="16">
         <f>F42*2</f>
